--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Case</t>
   </si>
@@ -51,26 +51,104 @@
     <t>Account_Number_Value</t>
   </si>
   <si>
-    <t>22667235591903</t>
-  </si>
-  <si>
     <t>Bene_Nick</t>
   </si>
   <si>
     <t>Bene_Mobile_No</t>
   </si>
   <si>
-    <t>AliAbbas</t>
-  </si>
-  <si>
-    <t>0312122334</t>
+    <t>03121223345</t>
+  </si>
+  <si>
+    <t>status_query</t>
+  </si>
+  <si>
+    <t>Tran_Pass_Value</t>
+  </si>
+  <si>
+    <t>OTP_Value</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>Bene_Email</t>
+  </si>
+  <si>
+    <t>aliabb111@gmail.com</t>
+  </si>
+  <si>
+    <t>pakistan2</t>
+  </si>
+  <si>
+    <t>from_account_query</t>
+  </si>
+  <si>
+    <t>purpose_query</t>
+  </si>
+  <si>
+    <t>db_val</t>
+  </si>
+  <si>
+    <t>SELECT DT.FROM_ACCOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.PURPOSE_OF_PAYMENT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>DIGITAL_CHANNEL_SEC</t>
+  </si>
+  <si>
+    <t>06047900194203</t>
+  </si>
+  <si>
+    <t>AliAbbas1</t>
+  </si>
+  <si>
+    <t>tran_type_query</t>
+  </si>
+  <si>
+    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>tran_amount_query</t>
+  </si>
+  <si>
+    <t>to_account_query</t>
+  </si>
+  <si>
+    <t>to_bank_query</t>
+  </si>
+  <si>
+    <t>bene_name_query</t>
+  </si>
+  <si>
+    <t>SELECT DT.TO_ACCOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.BENEFICIARY_NAME FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.TRANSACTION_AMOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>BEGIN UPDATE  DC_FUND_TRANSFER_BENEFICIARY TF SET TF.IS_DELETED = 1 WHERE TF.ACCOUNT_NO = '06047900194203' AND TF.CUSTOMER_INFO_ID = (SELECT CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DCI WHERE DCI.CUSTOMER_NAME = 'ABBY');DELETE FROM DC_DATA_CACHE DC WHERE DC.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY');COMMIT;END;</t>
+  </si>
+  <si>
+    <t>SELECT DB.BANK_NAME FROM DC_FUND_TRANSFER_BANK DB WHERE DB.FUND_TRANSFER_BANK_ID = (SELECT DT.BANK_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>Success_Message</t>
+  </si>
+  <si>
+    <t>Your transaction has been processed successfully.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +161,14 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,16 +188,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,83 +479,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="44.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="44.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="21.5703125" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney.xlsx
@@ -481,24 +481,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="44.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="21.5703125" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="185.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="87.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="167.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="86.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney.xlsx
@@ -39,9 +39,6 @@
     <t>PurposeOfPayment_Value</t>
   </si>
   <si>
-    <t>02197900643103 | MUHAMMAD KHALID | BANK ROAD, MARDAN</t>
-  </si>
-  <si>
     <t>HBL / Konnect</t>
   </si>
   <si>
@@ -126,22 +123,25 @@
     <t>SELECT DT.TO_ACCOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
   <si>
-    <t>SELECT DT.BENEFICIARY_NAME FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
     <t>SELECT DT.TRANSACTION_AMOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
   <si>
-    <t>BEGIN UPDATE  DC_FUND_TRANSFER_BENEFICIARY TF SET TF.IS_DELETED = 1 WHERE TF.ACCOUNT_NO = '06047900194203' AND TF.CUSTOMER_INFO_ID = (SELECT CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DCI WHERE DCI.CUSTOMER_NAME = 'ABBY');DELETE FROM DC_DATA_CACHE DC WHERE DC.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY');COMMIT;END;</t>
-  </si>
-  <si>
     <t>SELECT DB.BANK_NAME FROM DC_FUND_TRANSFER_BANK DB WHERE DB.FUND_TRANSFER_BANK_ID = (SELECT DT.BANK_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
   <si>
     <t>Success_Message</t>
   </si>
   <si>
-    <t>Your transaction has been processed successfully.</t>
+    <t>BEGIN UPDATE  DC_FUND_TRANSFER_BENEFICIARY TF SET TF.IS_DELETED = 1 WHERE TF.ACCOUNT_NO = '06047900194203' AND TF.CUSTOMER_INFO_ID = (SELECT CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DCI WHERE DCI.CUSTOMER_NAME = '{customer_name}');DELETE FROM DC_DATA_CACHE DC WHERE DC.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}');COMMIT;END;</t>
+  </si>
+  <si>
+    <t>00580052365603 | YASIR | PAF BASE MASROOR BR</t>
+  </si>
+  <si>
+    <t>Money sent successfully.</t>
+  </si>
+  <si>
+    <t>SELECT DT.FT_TO_ACCOUNT_TITLE FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
 </sst>
 </file>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -524,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -533,46 +533,46 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>21</v>
-      </c>
-      <c r="U1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -583,61 +583,61 @@
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2">
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>24</v>
-      </c>
-      <c r="U2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney.xlsx
@@ -132,9 +132,6 @@
     <t>Success_Message</t>
   </si>
   <si>
-    <t>BEGIN UPDATE  DC_FUND_TRANSFER_BENEFICIARY TF SET TF.IS_DELETED = 1 WHERE TF.ACCOUNT_NO = '06047900194203' AND TF.CUSTOMER_INFO_ID = (SELECT CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DCI WHERE DCI.CUSTOMER_NAME = '{customer_name}');DELETE FROM DC_DATA_CACHE DC WHERE DC.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}');COMMIT;END;</t>
-  </si>
-  <si>
     <t>00580052365603 | YASIR | PAF BASE MASROOR BR</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>SELECT DT.FT_TO_ACCOUNT_TITLE FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>BEGIN UPDATE  DC_FUND_TRANSFER_BENEFICIARY TF SET TF.IS_DELETED = 1 WHERE TF.ACCOUNT_NO = '{account_number}' AND TF.CUSTOMER_INFO_ID = (SELECT CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DCI WHERE DCI.CUSTOMER_NAME = '{customer_name}');DELETE FROM DC_DATA_CACHE DC WHERE DC.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}');COMMIT;END;</t>
   </si>
 </sst>
 </file>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,10 +580,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -613,7 +613,7 @@
         <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>28</v>
@@ -631,7 +631,7 @@
         <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s">
         <v>23</v>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney.xlsx
@@ -132,9 +132,6 @@
     <t>Success_Message</t>
   </si>
   <si>
-    <t>00580052365603 | YASIR | PAF BASE MASROOR BR</t>
-  </si>
-  <si>
     <t>Money sent successfully.</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>BEGIN UPDATE  DC_FUND_TRANSFER_BENEFICIARY TF SET TF.IS_DELETED = 1 WHERE TF.ACCOUNT_NO = '{account_number}' AND TF.CUSTOMER_INFO_ID = (SELECT CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DCI WHERE DCI.CUSTOMER_NAME = '{customer_name}');DELETE FROM DC_DATA_CACHE DC WHERE DC.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}');COMMIT;END;</t>
+  </si>
+  <si>
+    <t>00580052365603</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <cols>
     <col min="1" max="1" width="58.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -517,7 +517,7 @@
       <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -580,10 +580,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -613,7 +613,7 @@
         <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>28</v>
@@ -631,7 +631,7 @@
         <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
         <v>23</v>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="135">
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>When valid Account Details are provided with adding new Bene</t>
-  </si>
-  <si>
     <t>From_Account_Value</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
     <t>HBL / Konnect</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
     <t>Account_Number_Value</t>
   </si>
   <si>
@@ -57,18 +51,12 @@
     <t>03121223345</t>
   </si>
   <si>
-    <t>status_query</t>
-  </si>
-  <si>
     <t>Tran_Pass_Value</t>
   </si>
   <si>
     <t>OTP_Value</t>
   </si>
   <si>
-    <t>12345</t>
-  </si>
-  <si>
     <t>Bene_Email</t>
   </si>
   <si>
@@ -93,62 +81,356 @@
     <t>SELECT DT.PURPOSE_OF_PAYMENT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
   <si>
+    <t>tran_type_query</t>
+  </si>
+  <si>
+    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>tran_amount_query</t>
+  </si>
+  <si>
+    <t>to_account_query</t>
+  </si>
+  <si>
+    <t>to_bank_query</t>
+  </si>
+  <si>
+    <t>bene_name_query</t>
+  </si>
+  <si>
+    <t>SELECT DT.TO_ACCOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.TRANSACTION_AMOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DB.BANK_NAME FROM DC_FUND_TRANSFER_BANK DB WHERE DB.FUND_TRANSFER_BANK_ID = (SELECT DT.BANK_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>Success_Message</t>
+  </si>
+  <si>
+    <t>Money sent successfully.</t>
+  </si>
+  <si>
+    <t>SELECT DT.FT_TO_ACCOUNT_TITLE FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>08527900480003</t>
+  </si>
+  <si>
+    <t>Courier Services</t>
+  </si>
+  <si>
+    <t>Automationbene</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>To verify transaction from FCY_AddNew</t>
+  </si>
+  <si>
+    <t>23087900855910</t>
+  </si>
+  <si>
+    <t>To verify transaction with zero amount PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>00537900557403</t>
+  </si>
+  <si>
+    <t>To verify that, if Bene account is blocked PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>16817900545603</t>
+  </si>
+  <si>
+    <t>To verify that, if user did not select the purpose of payment &amp; hit the next button PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify Account Number field entering invalid account number PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify transaction with empty Amount field PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify transaction with invalid Mobile Number PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>09007860111</t>
+  </si>
+  <si>
+    <t>To verify transaction with invalid Email field PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>a@sd@..@..@sdsa</t>
+  </si>
+  <si>
+    <t>To verify transaction with empty Account Number field PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify if customer enters IBAN with country code other than of Pakistan PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>UK61HABB0022837900558401</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBAN1</t>
+  </si>
+  <si>
+    <t>To Verify FT transaction on FCY account PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>AutomationbeneFCY2</t>
+  </si>
+  <si>
+    <t>To verify transaction with decimal amount PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>Automationbene3</t>
+  </si>
+  <si>
+    <t>To Check that user can not perform fund transfer with invalid transaction password PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>Automationbene4</t>
+  </si>
+  <si>
+    <t>pakistan22</t>
+  </si>
+  <si>
+    <t>To verify Nick field excedding max characters limit PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>06020045410401</t>
+  </si>
+  <si>
+    <t>Automationbenesadasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddd</t>
+  </si>
+  <si>
+    <t>To verify transaction with empty nick field PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>06027900953001</t>
+  </si>
+  <si>
+    <t>To verify transaction with empty Mobile Number field PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>Automationbene5</t>
+  </si>
+  <si>
+    <t>To verify transaction with empty transaction password field PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>Automationbene6</t>
+  </si>
+  <si>
+    <t>To verify transaction with empty Email field PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>Automationbene7</t>
+  </si>
+  <si>
+    <t>To verify transaction via IBAN PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>PK61HABB0022837900558401</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBAN8</t>
+  </si>
+  <si>
+    <t>To verify transaction if beneficiary is already added via IBAN PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBAN9</t>
+  </si>
+  <si>
+    <t>To verify success transaction of conventional PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>Automationbene10</t>
+  </si>
+  <si>
+    <t>To verify transaction from Conv Acc if bene is already added via IBAN PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBAN11</t>
+  </si>
+  <si>
+    <t>Automationbene12</t>
+  </si>
+  <si>
+    <t>To verify transaction if nick is already exist PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>03334900120</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBAN10</t>
+  </si>
+  <si>
+    <t>To Verify IBFT transaction with max limit allowed limit PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>Model Bank</t>
+  </si>
+  <si>
+    <t>00020000011005730</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFT14</t>
+  </si>
+  <si>
+    <t>To Verify IBFT transaction PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFT15</t>
+  </si>
+  <si>
+    <t>To Verify IBFT transaction when bene is already added PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFT16</t>
+  </si>
+  <si>
+    <t>To Verify IBFT transaction when nick already exist PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>PK47ABPA0002000001100111</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTIBAN18</t>
+  </si>
+  <si>
+    <t>To Verify IBFT transaction Via IBAN PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>PK97BAHL1108009500890601</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTIBAN19</t>
+  </si>
+  <si>
+    <t>To Verify IBFT transaction Via IBAN when IBAN already exist PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTIBAN20</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFT21</t>
+  </si>
+  <si>
+    <t>To Verify Konnect transaction max limit exceed PSD_N_AddNew PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>03334900121</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTPSDN22</t>
+  </si>
+  <si>
+    <t>To Verify Microfinance IBFT via IBAN transaction max limit exceed PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>United Bank Limited</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTPSDN23</t>
+  </si>
+  <si>
+    <t>To Verify success Microfinance IBFT via IBAN PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTMF24</t>
+  </si>
+  <si>
+    <t>To Verify success Microfinance IBFT via conventional account PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>03002033052</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTMF25</t>
+  </si>
+  <si>
+    <t>To Verify Send money with max limit allowed within HBL fund transfer PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To Verify Send money with max limit allowed within HBL fund transfer PSD_Y_AddNew</t>
+  </si>
+  <si>
+    <t>14660017195901</t>
+  </si>
+  <si>
+    <t>AutomationbenePSDY26</t>
+  </si>
+  <si>
+    <t>To Verify IBFT transaction max limit exceed PSD_Y_AddNew</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTPSDY27</t>
+  </si>
+  <si>
+    <t>To Verify Konnect transaction max limit exceed PSD_Y_AddNew</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTPSDY28</t>
+  </si>
+  <si>
+    <t>To Verify Microfinance IBFT via IBAN transaction max limit exceed PSD_Y_AddNew</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTPSDY29</t>
+  </si>
+  <si>
+    <t>To Verify success Microfinance IBFT via conventional account PSD_Y_AddNew</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTMF30</t>
+  </si>
+  <si>
+    <t>To check fund transfer can not be performed with Insuff_AddNew</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>To Verify IBFT transaction Via IBAN when conv account exist PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify transaction from Conv Acc if bene is already added via conv acc PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To Verify IBFT transaction Via conv account when IBAN already exist PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>PK95UNIL0308125600740993</t>
+  </si>
+  <si>
+    <t>bene_count_query</t>
+  </si>
+  <si>
     <t>DIGITAL_CHANNEL_SEC</t>
   </si>
   <si>
-    <t>06047900194203</t>
-  </si>
-  <si>
-    <t>AliAbbas1</t>
-  </si>
-  <si>
-    <t>tran_type_query</t>
-  </si>
-  <si>
-    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>tran_amount_query</t>
-  </si>
-  <si>
-    <t>to_account_query</t>
-  </si>
-  <si>
-    <t>to_bank_query</t>
-  </si>
-  <si>
-    <t>bene_name_query</t>
-  </si>
-  <si>
-    <t>SELECT DT.TO_ACCOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>SELECT DT.TRANSACTION_AMOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>SELECT DB.BANK_NAME FROM DC_FUND_TRANSFER_BANK DB WHERE DB.FUND_TRANSFER_BANK_ID = (SELECT DT.BANK_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>Success_Message</t>
-  </si>
-  <si>
-    <t>Money sent successfully.</t>
-  </si>
-  <si>
-    <t>SELECT DT.FT_TO_ACCOUNT_TITLE FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>BEGIN UPDATE  DC_FUND_TRANSFER_BENEFICIARY TF SET TF.IS_DELETED = 1 WHERE TF.ACCOUNT_NO = '{account_number}' AND TF.CUSTOMER_INFO_ID = (SELECT CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DCI WHERE DCI.CUSTOMER_NAME = '{customer_name}');DELETE FROM DC_DATA_CACHE DC WHERE DC.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}');COMMIT;END;</t>
-  </si>
-  <si>
-    <t>00580052365603</t>
+    <t>Select count(*) from DC_FUND_TRANSFER_BENEFICIARY b where B.CUSTOMER_INFO_ID = ( Select CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO K WHERE K.CUSTOMER_NAME  = '{customer_name}') and B.IS_DELETED = 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,15 +439,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,14 +479,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -479,172 +782,3057 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AI12" sqref="AI12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="185.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="87.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="80.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="167.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="86.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="111.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="185.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="87.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="80.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="167.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="86.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="201" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="E2" s="3">
+        <v>22837900558401</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3">
+        <v>22837900558401</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>22837900558401</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>22837900558401</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>15615615615611</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>22837900558401</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>22837900558401</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>22837900558401</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>23087900941903</v>
+      </c>
+      <c r="F14" s="1">
+        <v>150.55000000000001</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>23089999102580</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>24460094903010</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>24460094904501</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>24460099464901</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>22837900558401</v>
+      </c>
+      <c r="F23" s="1">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>22837900558401</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>22837900558401</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="1">
+        <v>25001</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="1">
+        <v>5001</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5001</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1111</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1111</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="3">
+        <v>22837900558401</v>
+      </c>
+      <c r="F39" s="1">
+        <v>25001</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" t="s">
-        <v>24</v>
+      <c r="I39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="3">
+        <v>22837900558401</v>
+      </c>
+      <c r="F40" s="1">
+        <v>150001</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="1">
+        <v>150001</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="1">
+        <v>15001</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" s="1">
+        <v>15001</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="1">
+        <v>10001</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="J4" r:id="rId3"/>
+    <hyperlink ref="J5" r:id="rId4"/>
+    <hyperlink ref="J6" r:id="rId5"/>
+    <hyperlink ref="J7" r:id="rId6"/>
+    <hyperlink ref="J8" r:id="rId7"/>
+    <hyperlink ref="J9" r:id="rId8"/>
+    <hyperlink ref="J11" r:id="rId9"/>
+    <hyperlink ref="J12" r:id="rId10"/>
+    <hyperlink ref="J13" r:id="rId11"/>
+    <hyperlink ref="J14" r:id="rId12"/>
+    <hyperlink ref="J15" r:id="rId13"/>
+    <hyperlink ref="J16" r:id="rId14"/>
+    <hyperlink ref="J17" r:id="rId15"/>
+    <hyperlink ref="J18" r:id="rId16"/>
+    <hyperlink ref="J19" r:id="rId17"/>
+    <hyperlink ref="J21" r:id="rId18"/>
+    <hyperlink ref="J22" r:id="rId19"/>
+    <hyperlink ref="J24" r:id="rId20"/>
+    <hyperlink ref="J23" r:id="rId21"/>
+    <hyperlink ref="J25" r:id="rId22"/>
+    <hyperlink ref="J26" r:id="rId23"/>
+    <hyperlink ref="J27" r:id="rId24"/>
+    <hyperlink ref="J28" r:id="rId25"/>
+    <hyperlink ref="J29" r:id="rId26"/>
+    <hyperlink ref="J30" r:id="rId27"/>
+    <hyperlink ref="J31" r:id="rId28"/>
+    <hyperlink ref="J32" r:id="rId29"/>
+    <hyperlink ref="J33" r:id="rId30"/>
+    <hyperlink ref="J34" r:id="rId31"/>
+    <hyperlink ref="J35" r:id="rId32"/>
+    <hyperlink ref="J36" r:id="rId33"/>
+    <hyperlink ref="J37" r:id="rId34"/>
+    <hyperlink ref="J38" r:id="rId35"/>
+    <hyperlink ref="J40" r:id="rId36"/>
+    <hyperlink ref="J41" r:id="rId37"/>
+    <hyperlink ref="J42" r:id="rId38"/>
+    <hyperlink ref="J43" r:id="rId39"/>
+    <hyperlink ref="J44" r:id="rId40"/>
+    <hyperlink ref="J39" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
 </worksheet>
 </file>
--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="147">
   <si>
     <t>Case</t>
   </si>
@@ -424,6 +424,42 @@
   </si>
   <si>
     <t>Select count(*) from DC_FUND_TRANSFER_BENEFICIARY b where B.CUSTOMER_INFO_ID = ( Select CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO K WHERE K.CUSTOMER_NAME  = '{customer_name}') and B.IS_DELETED = 0</t>
+  </si>
+  <si>
+    <t>branch_code_query</t>
+  </si>
+  <si>
+    <t>SELECT DT.BRANCH_CODE FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '{TRANSACTION_ID}'</t>
+  </si>
+  <si>
+    <t>to_branch_query</t>
+  </si>
+  <si>
+    <t>SELECT DT.FT_TO_ACCOUNT_BRANCH_CODE FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '{TRANSACTION_ID}'</t>
+  </si>
+  <si>
+    <t>SELECT BENEFICIARY_ID FROM DC_TRANSACTION K WHERE K.TRANSACTION_ID = '{TRANSACTION_ID}'</t>
+  </si>
+  <si>
+    <t>bene_id_query</t>
+  </si>
+  <si>
+    <t>bene_id_tran_query</t>
+  </si>
+  <si>
+    <t>bene_bank_name_query</t>
+  </si>
+  <si>
+    <t>SELECT DB.BANK_NAME FROM DC_FUND_TRANSFER_BANK DB WHERE DB.FUND_TRANSFER_BANK_ID = (SELECT DT.BANK_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '{TRANSACTION_ID}')</t>
+  </si>
+  <si>
+    <t>bene_bank_tran_query</t>
+  </si>
+  <si>
+    <t>SELECT K.BENEFICIARY_BANK FROM DC_TRANSACTION K WHERE K.TRANSACTION_ID = '{TRANSACTION_ID}'</t>
+  </si>
+  <si>
+    <t>SELECT FUND_TRANSFER_BENEFICIARY_ID FROM DC_FUND_TRANSFER_BENEFICIARY K WHERE K.CUSTOMER_INFO_ID = (Select CUSTOMER_INFO_ID from DC_CUSTOMER_INFO L WHERE L.CUSTOMER_NAME = '{customer_name}' ) and K.ACCOUNT_NO = '{account_number}'</t>
   </si>
 </sst>
 </file>
@@ -782,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AI12" sqref="AI12"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,10 +848,16 @@
     <col min="20" max="20" width="86.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="201" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="23" width="96.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="113.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="92.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="245.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="186" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="97.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,8 +924,26 @@
       <c r="V1" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>124</v>
       </c>
@@ -950,8 +1010,26 @@
       <c r="V2" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -1018,8 +1096,26 @@
       <c r="V3" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -1086,8 +1182,26 @@
       <c r="V4" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1154,8 +1268,26 @@
       <c r="V5" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -1219,8 +1351,26 @@
       <c r="V6" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -1287,8 +1437,26 @@
       <c r="V7" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -1352,8 +1520,26 @@
       <c r="V8" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1420,8 +1606,26 @@
       <c r="V9" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -1488,8 +1692,26 @@
       <c r="V10" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -1554,8 +1776,26 @@
       <c r="V11" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1622,8 +1862,26 @@
       <c r="V12" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1690,8 +1948,26 @@
       <c r="V13" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -1758,8 +2034,26 @@
       <c r="V14" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1826,8 +2120,26 @@
       <c r="V15" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -1894,8 +2206,26 @@
       <c r="V16" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
@@ -1959,8 +2289,26 @@
       <c r="V17" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -2024,8 +2372,26 @@
       <c r="V18" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -2089,8 +2455,26 @@
       <c r="V19" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>69</v>
       </c>
@@ -2155,8 +2539,26 @@
       <c r="V20" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
@@ -2223,8 +2625,26 @@
       <c r="V21" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
@@ -2291,8 +2711,26 @@
       <c r="V22" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>76</v>
       </c>
@@ -2359,8 +2797,26 @@
       <c r="V23" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
@@ -2427,8 +2883,26 @@
       <c r="V24" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>129</v>
       </c>
@@ -2495,8 +2969,26 @@
       <c r="V25" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
@@ -2563,8 +3055,26 @@
       <c r="V26" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>84</v>
       </c>
@@ -2631,8 +3141,26 @@
       <c r="V27" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>88</v>
       </c>
@@ -2699,8 +3227,26 @@
       <c r="V28" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -2767,8 +3313,26 @@
       <c r="V29" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>92</v>
       </c>
@@ -2835,8 +3399,26 @@
       <c r="V30" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>128</v>
       </c>
@@ -2903,8 +3485,26 @@
       <c r="V31" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
@@ -2971,8 +3571,26 @@
       <c r="V32" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
@@ -3039,8 +3657,26 @@
       <c r="V33" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
@@ -3107,8 +3743,26 @@
       <c r="V34" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
@@ -3175,8 +3829,26 @@
       <c r="V35" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>104</v>
       </c>
@@ -3243,8 +3915,26 @@
       <c r="V36" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>107</v>
       </c>
@@ -3311,8 +4001,26 @@
       <c r="V37" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>109</v>
       </c>
@@ -3379,8 +4087,26 @@
       <c r="V38" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>112</v>
       </c>
@@ -3447,8 +4173,26 @@
       <c r="V39" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>113</v>
       </c>
@@ -3515,8 +4259,26 @@
       <c r="V40" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>116</v>
       </c>
@@ -3583,8 +4345,26 @@
       <c r="V41" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>118</v>
       </c>
@@ -3651,8 +4431,26 @@
       <c r="V42" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>120</v>
       </c>
@@ -3719,8 +4517,26 @@
       <c r="V43" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="W43" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>122</v>
       </c>
@@ -3786,6 +4602,24 @@
       </c>
       <c r="V44" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="148">
   <si>
     <t>Case</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>SELECT FUND_TRANSFER_BENEFICIARY_ID FROM DC_FUND_TRANSFER_BENEFICIARY K WHERE K.CUSTOMER_INFO_ID = (Select CUSTOMER_INFO_ID from DC_CUSTOMER_INFO L WHERE L.CUSTOMER_NAME = '{customer_name}' ) and K.ACCOUNT_NO = '{account_number}'</t>
+  </si>
+  <si>
+    <t>23087900941903</t>
   </si>
 </sst>
 </file>
@@ -820,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1040,7 @@
         <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
